--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -19,13 +19,13 @@
     <t>X, кВ</t>
   </si>
   <si>
-    <t>(9.829999923706055-0.949999988079071j)</t>
+    <t>(9.789999961853027-1.0199999809265137j)</t>
   </si>
   <si>
-    <t>(9.779999732971191-1.0099999904632568j)</t>
+    <t>(9.710000038146973-1.1200000047683716j)</t>
   </si>
   <si>
-    <t>0j</t>
+    <t>(9.6899995803833-1.149999976158142j)</t>
   </si>
   <si>
     <t>(9.680000305175781-0.9399999976158142j)</t>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -442,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -19,13 +19,13 @@
     <t>X, кВ</t>
   </si>
   <si>
-    <t>(9.789999961853027-1.0199999809265137j)</t>
+    <t>(9.739999771118164-1.090000033378601j)</t>
   </si>
   <si>
-    <t>(9.710000038146973-1.1200000047683716j)</t>
+    <t>(9.649999618530273-1.2200000286102295j)</t>
   </si>
   <si>
-    <t>(9.6899995803833-1.149999976158142j)</t>
+    <t>(9.619999885559082-1.25j)</t>
   </si>
   <si>
     <t>(9.680000305175781-0.9399999976158142j)</t>

--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>X, кВ</t>
-  </si>
-  <si>
-    <t>(9.739999771118164-1.090000033378601j)</t>
-  </si>
-  <si>
-    <t>(9.649999618530273-1.2200000286102295j)</t>
-  </si>
-  <si>
-    <t>(9.619999885559082-1.25j)</t>
-  </si>
-  <si>
-    <t>(9.680000305175781-0.9399999976158142j)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,7 +389,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
@@ -409,72 +397,16 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="B4">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
